--- a/data/misused_bar_graph_figures/nat_cancer/zero/annotation.xlsx
+++ b/data/misused_bar_graph_figures/nat_cancer/zero/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/nat_cancer/zero/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA045DB1-2D94-8241-B136-5EC7162CF96A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88834F42-1D52-214C-8E55-FA2122FB3259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19600" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="500" windowWidth="37620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="46">
   <si>
     <t>DOI</t>
   </si>
@@ -110,13 +110,61 @@
   </si>
   <si>
     <t>Glucose absorbance (1e-1)</t>
+  </si>
+  <si>
+    <t>Absolute/Relative</t>
+  </si>
+  <si>
+    <t>Measurement Type</t>
+  </si>
+  <si>
+    <t>Physical quantity I</t>
+  </si>
+  <si>
+    <t>Physical quantity II</t>
+  </si>
+  <si>
+    <t>Log transformation</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Relative</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>Cell viability</t>
+  </si>
+  <si>
+    <t>Ratio</t>
+  </si>
+  <si>
+    <t>Cell percentage</t>
+  </si>
+  <si>
+    <t>Absolute</t>
+  </si>
+  <si>
+    <t>Measured value</t>
+  </si>
+  <si>
+    <t>Cytokine concentration</t>
+  </si>
+  <si>
+    <t>Concentration</t>
+  </si>
+  <si>
+    <t>Absorbance</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,6 +178,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -139,7 +195,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -173,17 +229,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -487,15 +558,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="F2" sqref="F2:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="57.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -511,8 +585,23 @@
       <c r="E1" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -528,8 +617,23 @@
       <c r="E2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -545,8 +649,23 @@
       <c r="E3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -562,8 +681,23 @@
       <c r="E4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -579,8 +713,23 @@
       <c r="E5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -596,8 +745,23 @@
       <c r="E6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -613,8 +777,23 @@
       <c r="E7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -630,8 +809,23 @@
       <c r="E8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -647,8 +841,23 @@
       <c r="E9" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -664,8 +873,23 @@
       <c r="E10" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -681,8 +905,23 @@
       <c r="E11" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" t="s">
+        <v>44</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -698,8 +937,23 @@
       <c r="E12" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" t="s">
+        <v>39</v>
+      </c>
+      <c r="J12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -715,8 +969,23 @@
       <c r="E13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -732,8 +1001,23 @@
       <c r="E14" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -749,8 +1033,23 @@
       <c r="E15" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H15" t="s">
+        <v>45</v>
+      </c>
+      <c r="I15" t="s">
+        <v>45</v>
+      </c>
+      <c r="J15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -765,6 +1064,21 @@
       </c>
       <c r="E16" t="s">
         <v>27</v>
+      </c>
+      <c r="F16" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" t="s">
+        <v>39</v>
+      </c>
+      <c r="I16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J16" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/data/misused_bar_graph_figures/nat_cancer/zero/annotation.xlsx
+++ b/data/misused_bar_graph_figures/nat_cancer/zero/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/nat_cancer/zero/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88834F42-1D52-214C-8E55-FA2122FB3259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C9ED37-F003-6344-B4BC-5B83023216AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="500" windowWidth="37620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19600" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="62">
   <si>
     <t>DOI</t>
   </si>
@@ -158,6 +158,54 @@
   </si>
   <si>
     <t>Absorbance</t>
+  </si>
+  <si>
+    <t>Fig Index</t>
+  </si>
+  <si>
+    <t>10.1038:s43018-023-00513-2_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s43018-023-00513-2_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s43018-023-00524-z_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s43018-023-00563-6_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s43018-023-00573-4_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s43018-023-00594-z_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s43018-023-00594-z_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s43018-023-00610-2_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s43018-023-00610-2_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s43018-023-00610-2_zero_fig3</t>
+  </si>
+  <si>
+    <t>10.1038:s43018-023-00635-7_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s43018-023-00635-7_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s43018-023-00635-7_zero_fig3</t>
+  </si>
+  <si>
+    <t>10.1038:s43018-023-00635-7_zero_fig4</t>
+  </si>
+  <si>
+    <t>10.1038:s43018-023-00635-7_zero_fig5</t>
   </si>
 </sst>
 </file>
@@ -558,135 +606,144 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:I3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="57.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="57.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
       <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
       <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>36</v>
       </c>
-      <c r="G2" t="s">
-        <v>39</v>
-      </c>
       <c r="H2" t="s">
         <v>39</v>
       </c>
       <c r="I2" t="s">
         <v>39</v>
       </c>
-      <c r="J2">
+      <c r="J2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
       <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
       <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
         <v>19</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>36</v>
       </c>
-      <c r="G3" t="s">
-        <v>39</v>
-      </c>
       <c r="H3" t="s">
         <v>39</v>
       </c>
       <c r="I3" t="s">
         <v>39</v>
       </c>
-      <c r="J3">
+      <c r="J3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
       <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
       <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
         <v>20</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>36</v>
       </c>
-      <c r="G4" t="s">
-        <v>37</v>
-      </c>
       <c r="H4" t="s">
         <v>37</v>
       </c>
@@ -694,31 +751,34 @@
         <v>37</v>
       </c>
       <c r="J4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
       <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
       <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
         <v>21</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>36</v>
       </c>
-      <c r="G5" t="s">
-        <v>39</v>
-      </c>
       <c r="H5" t="s">
         <v>39</v>
       </c>
@@ -726,127 +786,139 @@
         <v>39</v>
       </c>
       <c r="J5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
       <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
         <v>6</v>
       </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
       <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
         <v>22</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>36</v>
       </c>
-      <c r="G6" t="s">
-        <v>37</v>
-      </c>
       <c r="H6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" t="s">
         <v>38</v>
       </c>
-      <c r="I6" t="s">
-        <v>37</v>
-      </c>
       <c r="J6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
       <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
         <v>6</v>
       </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
       <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
         <v>23</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>36</v>
       </c>
-      <c r="G7" t="s">
-        <v>37</v>
-      </c>
       <c r="H7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" t="s">
         <v>40</v>
       </c>
-      <c r="I7" t="s">
-        <v>37</v>
-      </c>
       <c r="J7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
       <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
         <v>8</v>
       </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
       <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
         <v>24</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>36</v>
       </c>
-      <c r="G8" t="s">
-        <v>37</v>
-      </c>
       <c r="H8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" t="s">
         <v>40</v>
       </c>
-      <c r="I8" t="s">
-        <v>37</v>
-      </c>
       <c r="J8" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
       <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
         <v>6</v>
       </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
       <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
         <v>25</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>36</v>
       </c>
-      <c r="G9" t="s">
-        <v>39</v>
-      </c>
       <c r="H9" t="s">
         <v>39</v>
       </c>
@@ -854,95 +926,104 @@
         <v>39</v>
       </c>
       <c r="J9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
       <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
         <v>8</v>
       </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
       <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" t="s">
         <v>26</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>41</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>42</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>43</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>44</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
       <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
         <v>14</v>
       </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
       <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
         <v>26</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>41</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>42</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>43</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>44</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" t="s">
         <v>15</v>
       </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
       <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
         <v>6</v>
       </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
       <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
         <v>27</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>36</v>
       </c>
-      <c r="G12" t="s">
-        <v>39</v>
-      </c>
       <c r="H12" t="s">
         <v>39</v>
       </c>
@@ -950,31 +1031,34 @@
         <v>39</v>
       </c>
       <c r="J12" t="s">
+        <v>39</v>
+      </c>
+      <c r="K12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" t="s">
         <v>15</v>
       </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
       <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
         <v>8</v>
       </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
       <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
         <v>28</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>36</v>
       </c>
-      <c r="G13" t="s">
-        <v>37</v>
-      </c>
       <c r="H13" t="s">
         <v>37</v>
       </c>
@@ -982,31 +1066,34 @@
         <v>37</v>
       </c>
       <c r="J13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" t="s">
         <v>15</v>
       </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
       <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
         <v>14</v>
       </c>
-      <c r="D14" t="s">
-        <v>7</v>
-      </c>
       <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" t="s">
         <v>28</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>36</v>
       </c>
-      <c r="G14" t="s">
-        <v>37</v>
-      </c>
       <c r="H14" t="s">
         <v>37</v>
       </c>
@@ -1014,63 +1101,69 @@
         <v>37</v>
       </c>
       <c r="J14" t="s">
+        <v>37</v>
+      </c>
+      <c r="K14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" t="s">
         <v>15</v>
       </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
       <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
         <v>16</v>
       </c>
-      <c r="D15" t="s">
-        <v>7</v>
-      </c>
       <c r="E15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" t="s">
         <v>29</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>41</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>42</v>
-      </c>
-      <c r="H15" t="s">
-        <v>45</v>
       </c>
       <c r="I15" t="s">
         <v>45</v>
       </c>
       <c r="J15" t="s">
+        <v>45</v>
+      </c>
+      <c r="K15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" t="s">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
       <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
         <v>17</v>
       </c>
-      <c r="D16" t="s">
-        <v>7</v>
-      </c>
       <c r="E16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" t="s">
         <v>27</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>36</v>
       </c>
-      <c r="G16" t="s">
-        <v>39</v>
-      </c>
       <c r="H16" t="s">
         <v>39</v>
       </c>
@@ -1078,6 +1171,9 @@
         <v>39</v>
       </c>
       <c r="J16" t="s">
+        <v>39</v>
+      </c>
+      <c r="K16" t="s">
         <v>35</v>
       </c>
     </row>

--- a/data/misused_bar_graph_figures/nat_cancer/zero/annotation.xlsx
+++ b/data/misused_bar_graph_figures/nat_cancer/zero/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/nat_cancer/zero/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C9ED37-F003-6344-B4BC-5B83023216AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA6F321-CCF3-E04D-A21A-274D31944774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19600" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="63">
   <si>
     <t>DOI</t>
   </si>
@@ -206,6 +206,9 @@
   </si>
   <si>
     <t>10.1038:s43018-023-00635-7_zero_fig5</t>
+  </si>
+  <si>
+    <t>Others</t>
   </si>
 </sst>
 </file>
@@ -608,8 +611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="200" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1136,7 +1139,7 @@
         <v>45</v>
       </c>
       <c r="J15" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="K15" t="s">
         <v>35</v>

--- a/data/misused_bar_graph_figures/nat_cancer/zero/annotation.xlsx
+++ b/data/misused_bar_graph_figures/nat_cancer/zero/annotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/nat_cancer/zero/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA6F321-CCF3-E04D-A21A-274D31944774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{015977A1-5943-3E4D-844F-8D736D1D7167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -618,6 +618,8 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="6" max="6" width="57.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="48" x14ac:dyDescent="0.2">

--- a/data/misused_bar_graph_figures/nat_cancer/zero/annotation.xlsx
+++ b/data/misused_bar_graph_figures/nat_cancer/zero/annotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/nat_cancer/zero/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{015977A1-5943-3E4D-844F-8D736D1D7167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4126A002-EC97-2044-8343-D53DF90171F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="62">
   <si>
     <t>DOI</t>
   </si>
@@ -155,9 +155,6 @@
   </si>
   <si>
     <t>Concentration</t>
-  </si>
-  <si>
-    <t>Absorbance</t>
   </si>
   <si>
     <t>Fig Index</t>
@@ -611,8 +608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="200" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -624,7 +621,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -659,7 +656,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -694,7 +691,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -729,7 +726,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -764,7 +761,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -799,7 +796,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -834,7 +831,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -869,7 +866,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
@@ -904,7 +901,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -939,7 +936,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -974,7 +971,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -1009,7 +1006,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
@@ -1044,7 +1041,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
@@ -1079,7 +1076,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
@@ -1114,7 +1111,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -1138,10 +1135,10 @@
         <v>42</v>
       </c>
       <c r="I15" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="J15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K15" t="s">
         <v>35</v>
@@ -1149,7 +1146,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>

--- a/data/misused_bar_graph_figures/nat_cancer/zero/annotation.xlsx
+++ b/data/misused_bar_graph_figures/nat_cancer/zero/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/nat_cancer/zero/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4126A002-EC97-2044-8343-D53DF90171F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7602009C-E0A2-A54D-8BEB-18DEEED8523A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="800" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -76,9 +76,6 @@
     <t>5</t>
   </si>
   <si>
-    <t>Quantity</t>
-  </si>
-  <si>
     <t>log2 fold change mRNA of AT2 cells (from primary tumor vs healthy mice)</t>
   </si>
   <si>
@@ -118,12 +115,6 @@
     <t>Measurement Type</t>
   </si>
   <si>
-    <t>Physical quantity I</t>
-  </si>
-  <si>
-    <t>Physical quantity II</t>
-  </si>
-  <si>
     <t>Log transformation</t>
   </si>
   <si>
@@ -206,6 +197,15 @@
   </si>
   <si>
     <t>Others</t>
+  </si>
+  <si>
+    <t>Measurand Level I</t>
+  </si>
+  <si>
+    <t>Measurand Level II</t>
+  </si>
+  <si>
+    <t>Measurand</t>
   </si>
 </sst>
 </file>
@@ -608,8 +608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="200" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -621,7 +621,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -636,27 +636,27 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -671,19 +671,19 @@
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -691,7 +691,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -706,19 +706,19 @@
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -726,7 +726,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -741,27 +741,27 @@
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -776,27 +776,27 @@
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -811,27 +811,27 @@
         <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="J6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -846,27 +846,27 @@
         <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" t="s">
         <v>37</v>
       </c>
-      <c r="I7" t="s">
-        <v>40</v>
-      </c>
       <c r="J7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
@@ -881,27 +881,27 @@
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" t="s">
         <v>37</v>
       </c>
-      <c r="I8" t="s">
-        <v>40</v>
-      </c>
       <c r="J8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -916,27 +916,27 @@
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -951,19 +951,19 @@
         <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" t="s">
         <v>41</v>
-      </c>
-      <c r="H10" t="s">
-        <v>42</v>
-      </c>
-      <c r="I10" t="s">
-        <v>43</v>
-      </c>
-      <c r="J10" t="s">
-        <v>44</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -971,7 +971,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -986,19 +986,19 @@
         <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" t="s">
         <v>41</v>
-      </c>
-      <c r="H11" t="s">
-        <v>42</v>
-      </c>
-      <c r="I11" t="s">
-        <v>43</v>
-      </c>
-      <c r="J11" t="s">
-        <v>44</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1006,7 +1006,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
@@ -1021,27 +1021,27 @@
         <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
@@ -1056,27 +1056,27 @@
         <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
@@ -1091,27 +1091,27 @@
         <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -1126,27 +1126,27 @@
         <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I15" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J15" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
@@ -1161,22 +1161,22 @@
         <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
